--- a/biology/Zoologie/Cyrtodactylus_laevigatus/Cyrtodactylus_laevigatus.xlsx
+++ b/biology/Zoologie/Cyrtodactylus_laevigatus/Cyrtodactylus_laevigatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus laevigatus est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus laevigatus est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Petites îles de la Sonde en Indonésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Petites îles de la Sonde en Indonésie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (19 septembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (19 septembre 2012) :
 Cyrtodactylus laevigatus laevigatus Darevsky, 1964 de Komodo
 Cyrtodactylus laevigatus uniformis Auffenberg, 1980 de l'Ouest de Florès</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Darevsky, 1964 : Two new species of gekkonid lizards from the Komodo island in Lesser Sundas Archipelago. Zoologische Anzeiger, vol. 173, p. 169-174.
 Auffenberg, 1980 : The herpetofauna of Komodo, with notes on adjacent areas. Bulletin of the Florida State Museum of Natural History, Biological Sciences, vol. 25, n. 2, p. 39-156 (texte intégral).</t>
